--- a/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -278,34 +278,19 @@
     <t>Mondelinge presentatie</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>Vocabulairetoets</t>
   </si>
   <si>
     <t>Schrijfvaardigheid</t>
   </si>
   <si>
-    <t>D1 en D2</t>
-  </si>
-  <si>
     <t>Cito kijk- en luistertoets</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Gesprek voeren</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Toets over gelezen boek en behandelde literatuur</t>
-  </si>
-  <si>
-    <t>E1</t>
   </si>
   <si>
     <t>A</t>
@@ -329,13 +314,7 @@
     <t>Bij de hoofdstuktoetsen mag bij het luisterdeel en het kennisdeel geen hulpmiddelen gebruikt worden. Bij het lees-en schrijfdeel mag vandale.nl , mijnwoordenboek.nl en de rÃ©fÃ©rence horend bij de methode gebruikt worden. Het schrijfdeel wordt gemaakt in Word.</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Schrijfvaardigheid (formeel)</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Schrijfvaardigheid (informeel)</t>
@@ -1364,7 +1343,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1372,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -1391,9 +1370,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1408,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1427,9 +1404,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1444,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1463,9 +1438,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1481,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1500,9 +1473,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1510,7 +1481,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1537,9 +1508,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1555,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -1574,9 +1543,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1619,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2278,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2392,7 +2359,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2547,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2566,9 +2533,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2577,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2596,9 +2561,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2607,7 +2570,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2628,9 +2591,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2639,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2658,9 +2619,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2690,9 +2649,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2701,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I23" s="27">
         <v>2</v>
@@ -2720,9 +2677,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32">
-        <v>0</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -3196,7 +3151,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3310,7 +3265,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3670,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3689,9 +3644,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3700,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3719,9 +3672,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3730,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3749,9 +3700,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3760,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3779,9 +3728,7 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -3790,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
@@ -3809,9 +3756,7 @@
       <c r="O34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P34" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P34" s="32"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
@@ -4206,7 +4151,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5161,7 +5106,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5977,7 +5922,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6793,7 +6738,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7532,9 +7477,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7568,9 +7511,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7604,9 +7545,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7641,9 +7580,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7651,7 +7588,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7678,9 +7615,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7715,9 +7650,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8533,7 +8466,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8707,9 +8640,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8718,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8737,9 +8668,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8748,7 +8677,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8767,9 +8696,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8778,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
@@ -8797,9 +8724,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -8808,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
@@ -8827,9 +8752,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -8838,7 +8761,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
@@ -8857,9 +8780,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -9437,7 +9358,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633298611</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
@@ -1345,7 +1345,9 @@
       <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>110</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1379,7 +1381,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>111</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1413,7 +1417,9 @@
       <c r="B8" s="2">
         <v>22</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>112</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1448,7 +1454,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>113</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1481,9 +1489,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>114</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1518,7 +1528,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>115</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1565,7 +1577,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>52</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1779,7 +1793,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>53</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1984,7 +2000,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>54</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2359,7 +2377,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2431,7 +2449,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2508,7 +2528,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>116</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2536,7 +2558,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>117</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2564,7 +2588,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>118</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2594,7 +2620,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>119</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2622,7 +2650,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>120</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2652,7 +2682,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>121</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2683,7 +2715,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>56</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2696,9 +2730,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2890,7 +2922,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>57</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3265,7 +3299,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3337,7 +3371,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>58</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3549,7 +3585,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>59</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3619,7 +3657,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>122</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3647,7 +3687,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>123</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3675,7 +3717,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>124</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3703,7 +3747,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>125</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3731,7 +3777,9 @@
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>126</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="G34" s="27">
         <v>3</v>
@@ -3784,7 +3832,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>60</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3797,9 +3847,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4151,7 +4199,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5106,7 +5154,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5922,7 +5970,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6738,7 +6786,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7452,7 +7500,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>98</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7486,7 +7536,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>99</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7520,7 +7572,9 @@
       <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7555,7 +7609,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>101</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7588,9 +7644,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445706019</v>
+      </c>
+      <c r="D10" s="2">
+        <v>102</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7625,7 +7683,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>103</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7672,7 +7732,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>48</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7886,7 +7948,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>49</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8466,7 +8530,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8538,7 +8602,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8615,7 +8681,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>104</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8643,7 +8711,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>105</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -8671,7 +8741,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>106</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -8699,7 +8771,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>107</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>2</v>
@@ -8727,7 +8801,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>108</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>3</v>
@@ -8755,7 +8831,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>109</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>3</v>
@@ -8786,7 +8864,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>51</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8799,9 +8879,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9358,7 +9436,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>FA</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -263,12 +267,18 @@
     <t>toets over gelezen boek</t>
   </si>
   <si>
+    <t>leesboek en woordenboek F-N</t>
+  </si>
+  <si>
     <t>proefwerk over hoofdstuk 4: mix van kennis en vaardigheden</t>
   </si>
   <si>
     <t xml:space="preserve">mondelinge presentatie </t>
   </si>
   <si>
+    <t>geen</t>
+  </si>
+  <si>
     <t>proefwerk over hoofdstuk 5: mix van kennis en vaardigheden</t>
   </si>
   <si>
@@ -278,21 +288,42 @@
     <t>Mondelinge presentatie</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>Vocabulairetoets</t>
   </si>
   <si>
     <t>Schrijfvaardigheid</t>
   </si>
   <si>
+    <t>Tekstverwerker met spellingscontrole, référence, woordenboeken F-N/N-F</t>
+  </si>
+  <si>
+    <t>D1 en D2</t>
+  </si>
+  <si>
     <t>Cito kijk- en luistertoets</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Gesprek voeren</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>Toets over gelezen boek en behandelde literatuur</t>
   </si>
   <si>
+    <t>Leesboek, woordenboek F-N</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -305,6 +336,9 @@
     <t>Toets over gelezen boek</t>
   </si>
   <si>
+    <t>leesboek, woordenboek F-N</t>
+  </si>
+  <si>
     <t>Proefwerk hoofdstuk 4: kennis en vaardigheden</t>
   </si>
   <si>
@@ -314,12 +348,24 @@
     <t>Bij de hoofdstuktoetsen mag bij het luisterdeel en het kennisdeel geen hulpmiddelen gebruikt worden. Bij het lees-en schrijfdeel mag vandale.nl , mijnwoordenboek.nl en de rÃ©fÃ©rence horend bij de methode gebruikt worden. Het schrijfdeel wordt gemaakt in Word.</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Schrijfvaardigheid (formeel)</t>
   </si>
   <si>
+    <t>Teksverwerker met spellingcontrole, référence, woordenboek F-N, N-F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Schrijfvaardigheid (informeel)</t>
   </si>
   <si>
+    <t>Tekstverwerker met spellingcontrole, référence, woordenboek F-N, N-F</t>
+  </si>
+  <si>
     <t>Cito kijk-en luistertoets</t>
   </si>
   <si>
@@ -327,6 +373,9 @@
   </si>
   <si>
     <t>Literatuurtoets</t>
+  </si>
+  <si>
+    <t>Gelezen boek, woordenboek F-N</t>
   </si>
 </sst>
 </file>
@@ -1255,12 +1304,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1282,25 +1331,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>FA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1342,35 +1387,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2">
-        <v>110</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1378,35 +1413,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>111</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1414,35 +1439,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>112</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>30</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1452,34 +1467,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>113</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1489,34 +1496,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>114</v>
-      </c>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>5</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1528,32 +1527,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>115</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1572,17 +1563,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>52</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1597,11 +1586,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>94</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1616,7 +1603,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>FA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1793,12 +1780,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>53</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1823,7 +1808,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>FA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2000,12 +1985,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>54</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2079,44 +2062,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2180,7 +2125,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2211,7 +2156,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>FA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>FA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2263,26 +2208,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>110</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2291,26 +2244,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>111</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2319,26 +2280,36 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>112</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="27">
+        <v>30</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2348,26 +2319,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>113</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2377,26 +2356,36 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>114</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="27">
+        <v>5</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2408,24 +2397,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>115</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -2444,17 +2441,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2469,9 +2466,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2486,7 +2485,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>FA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>FA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2528,186 +2527,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>116</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>117</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>118</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>119</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>120</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>5</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>121</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="27">
-        <v>2</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>100</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2716,11 +2663,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2745,7 +2692,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>FA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>FA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2923,11 +2870,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3060,6 +3007,934 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>FA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>FA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>5</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27">
+        <v>100</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31">
+        <v>0</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>56</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>FA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>57</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3185,7 +4060,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3299,7 +4174,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3665,13 +4540,15 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="L30" s="27">
         <v>100</v>
       </c>
@@ -3682,9 +4559,11 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3695,13 +4574,15 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="30" t="s">
+        <v>111</v>
+      </c>
       <c r="L31" s="27">
         <v>100</v>
       </c>
@@ -3712,9 +4593,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3725,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3744,7 +4627,9 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32"/>
+      <c r="P32" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2">
@@ -3755,7 +4640,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3774,7 +4659,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2">
@@ -3785,13 +4672,15 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="30"/>
+      <c r="K34" s="30" t="s">
+        <v>115</v>
+      </c>
       <c r="L34" s="27">
         <v>100</v>
       </c>
@@ -3802,9 +4691,11 @@
         <v>1</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
@@ -4199,7 +5090,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5154,7 +6045,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5970,7 +6861,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6594,12 +7485,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6621,6 +7512,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>FA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>46</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>FA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>47</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>FA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6786,7 +8542,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7366,924 +9122,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>FA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>30</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>101</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2">
-        <v>102</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>5</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>103</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>48</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>FA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>49</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>FA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8333,7 +9171,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8364,7 +9202,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>FA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>FA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8416,26 +9254,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>98</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8444,26 +9290,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>99</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -8472,26 +9326,36 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="27">
+        <v>30</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -8501,26 +9365,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>101</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -8530,26 +9402,36 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.4440625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>102</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="27">
+        <v>5</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -8561,24 +9443,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>103</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -8597,17 +9487,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8622,9 +9512,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8639,7 +9531,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>FA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>FA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8681,182 +9573,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>104</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>5</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>105</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>106</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>107</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>2</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>60</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>108</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>15</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>109</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>3</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
       <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>100</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -8865,11 +9709,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8894,7 +9738,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>FA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>FA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9074,7 +9918,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9244,12 +10088,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9271,21 +10115,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>FA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9327,7 +10175,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9353,7 +10203,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9379,7 +10231,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>21</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9407,7 +10261,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9436,7 +10290,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.4440625</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9503,15 +10357,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9526,7 +10382,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9543,7 +10399,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>FA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9585,145 +10441,209 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>104</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>5</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>105</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>106</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>107</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>60</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>108</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="27">
+        <v>15</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>109</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
+      <c r="G23" s="27">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="27">
+        <v>100</v>
+      </c>
       <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
       <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>51</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9748,7 +10668,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>FA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9928,7 +10848,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  FA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -10002,6 +10922,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2333,7 +2333,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3469,7 +3469,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4626,7 +4626,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5701,7 +5701,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6776,7 +6776,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2">
         <v>102</v>
@@ -7908,7 +7908,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9048,7 +9048,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10128,7 +10128,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808784722</v>
+        <v>44341.376157407</v>
       </c>
       <c r="D10" s="2">
         <v>114</v>
@@ -11262,7 +11262,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/FA PTA en onderwijsprogramma.xlsx
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2826,123 +2826,179 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>667</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>668</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>669</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>60</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>3</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>670</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="23">
+        <v>15</v>
+      </c>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>671</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="24"/>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="23">
+        <v>100</v>
+      </c>
       <c r="M34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N34" s="27">
+        <v>1</v>
+      </c>
       <c r="O34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
@@ -3425,7 +3481,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4723,7 +4779,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5798,7 +5854,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6753,25 +6809,33 @@
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>661</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -6783,25 +6847,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>662</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -6813,25 +6885,35 @@
       <c r="B8" s="2">
         <v>191</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>663</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="23">
+        <v>30</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -6844,25 +6926,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>664</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -6873,27 +6963,37 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629386574</v>
+      </c>
+      <c r="D10" s="2">
+        <v>665</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="23">
+        <v>5</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -6906,25 +7006,33 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>666</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
@@ -7985,7 +8093,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2">
         <v>102</v>
@@ -8216,147 +8324,209 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>655</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>5</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>656</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>657</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>658</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>2</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>60</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>659</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>15</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>660</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
+      <c r="G23" s="23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="23">
+        <v>100</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>2</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -9083,7 +9253,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10103,25 +10273,33 @@
       <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>678</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10133,25 +10311,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>679</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -10163,25 +10349,35 @@
       <c r="B8" s="2">
         <v>192</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>680</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="23">
+        <v>30</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -10194,25 +10390,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>681</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -10223,27 +10427,37 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629386574</v>
+      </c>
+      <c r="D10" s="2">
+        <v>682</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="23">
+        <v>5</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -10256,25 +10470,33 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>683</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
@@ -11337,7 +11559,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382152778</v>
+        <v>44342.629386574</v>
       </c>
       <c r="D10" s="2">
         <v>114</v>
@@ -11568,145 +11790,203 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>672</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
-        <v>5</v>
+      <c r="O18" s="27">
+        <v>0</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>673</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
-        <v>5</v>
+      <c r="O19" s="27">
+        <v>0</v>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>674</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>675</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
-        <v>5</v>
+      <c r="O21" s="27">
+        <v>0</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>676</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>5</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>677</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="23">
+        <v>100</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="27"/>
-      <c r="O23" s="27" t="s">
-        <v>5</v>
+      <c r="O23" s="27">
+        <v>0</v>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="37"/>
